--- a/trunk/tasks.xlsx
+++ b/trunk/tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Task</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Lidar com pop-up menu após chamada</t>
-  </si>
-  <si>
-    <t>TTS spell function</t>
-  </si>
-  <si>
     <t>Usar lista de contactos em incoming call</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
     <t>No segundo ciclo de leitura não permite escolha da ultima opção</t>
   </si>
   <si>
-    <t>Debug todas as combinações de chamadas</t>
-  </si>
-  <si>
     <t>debug</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
     <t>Status (Done, Discarded, TBD, Wish)</t>
   </si>
   <si>
-    <t>Increase InCall TTS volume</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
@@ -103,6 +91,24 @@
   </si>
   <si>
     <t>modification</t>
+  </si>
+  <si>
+    <t>Hugo</t>
+  </si>
+  <si>
+    <t>TTS Spell</t>
+  </si>
+  <si>
+    <t>Lidar com numero privado (incoming number = null)</t>
+  </si>
+  <si>
+    <t>Lidar com pop-up menu após chamada (só vodafone?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debug todas as combinações de fazer chamada </t>
+  </si>
+  <si>
+    <t>Debug todas as combinações de receber chamada / em chamada</t>
   </si>
 </sst>
 </file>
@@ -550,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -572,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -592,170 +598,208 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
       </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
       </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
       </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
       </c>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1">
-    <sortState ref="A2:G12">
+    <sortState ref="A2:G13">
       <sortCondition descending="1" ref="D1"/>
     </sortState>
   </autoFilter>

--- a/trunk/tasks.xlsx
+++ b/trunk/tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Task</t>
   </si>
@@ -109,6 +109,15 @@
   </si>
   <si>
     <t>Debug todas as combinações de receber chamada / em chamada</t>
+  </si>
+  <si>
+    <t>Se não existir auricular ligar altifalante</t>
+  </si>
+  <si>
+    <t>Usar lista de contactos no easyphone</t>
+  </si>
+  <si>
+    <t>Ligar altifalante</t>
   </si>
 </sst>
 </file>
@@ -556,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,41 +655,29 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5">
+        <v>31</v>
+      </c>
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5">
         <v>3</v>
@@ -697,27 +694,30 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>24</v>
@@ -726,35 +726,32 @@
         <v>16</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>24</v>
@@ -763,43 +760,94 @@
         <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>23</v>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1">
-    <sortState ref="A2:G13">
+    <sortState ref="A2:G16">
       <sortCondition descending="1" ref="D1"/>
     </sortState>
   </autoFilter>

--- a/trunk/tasks.xlsx
+++ b/trunk/tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
   <si>
     <t>Task</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>Ligar altifalante</t>
+  </si>
+  <si>
+    <t>Ajudar luz ecrã</t>
+  </si>
+  <si>
+    <t>Estado da bateria</t>
+  </si>
+  <si>
+    <t>Nivel da bateria</t>
+  </si>
+  <si>
+    <t>Relogio</t>
+  </si>
+  <si>
+    <t>Testar chamadas com Galaxy S</t>
+  </si>
+  <si>
+    <t>Testar rato</t>
   </si>
 </sst>
 </file>
@@ -565,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -638,27 +656,21 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B5" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>15</v>
@@ -666,7 +678,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
@@ -677,47 +689,35 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>7</v>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B9" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>24</v>
@@ -726,69 +726,63 @@
         <v>16</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="5">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>10</v>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>24</v>
@@ -797,24 +791,27 @@
         <v>16</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -833,21 +830,120 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="8">
+        <v>3</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1">
-    <sortState ref="A2:G16">
+    <sortState ref="A2:G21">
       <sortCondition descending="1" ref="D1"/>
     </sortState>
   </autoFilter>

--- a/trunk/tasks.xlsx
+++ b/trunk/tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
   <si>
     <t>Task</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Testar rato</t>
+  </si>
+  <si>
+    <t>Lidar com "Back" na incoming call</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -252,11 +255,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -583,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -625,21 +738,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
+      <c r="C2" s="9"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -650,24 +764,27 @@
       <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="8">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -678,60 +795,54 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B8" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -743,29 +854,29 @@
         <v>16</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -776,27 +887,27 @@
       <c r="D12" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="F12" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
@@ -808,29 +919,32 @@
         <v>16</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="8">
+        <v>17</v>
+      </c>
+      <c r="B15" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>16</v>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" s="8">
         <v>2</v>
@@ -844,7 +958,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B17" s="8">
         <v>2</v>
@@ -858,7 +972,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -872,24 +986,21 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -903,13 +1014,10 @@
       <c r="F20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
@@ -923,21 +1031,41 @@
       <c r="F21" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="G21" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="5">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B23" s="8">
         <v>3</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="C23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -948,13 +1076,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/tasks.xlsx
+++ b/trunk/tasks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="41">
   <si>
     <t>Task</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Lidar com "Back" na incoming call</t>
+  </si>
+  <si>
+    <t>Bloquear Teclas (Power e Home)</t>
   </si>
 </sst>
 </file>
@@ -245,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -255,85 +258,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <condense val="0"/>
@@ -696,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -736,38 +669,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" s="12" customFormat="1">
       <c r="A2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10"/>
       <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1">
+      <c r="A3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -778,35 +712,38 @@
       <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="8">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B6" s="8">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -817,49 +754,43 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="8">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -871,29 +802,29 @@
         <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="8">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B13" s="8">
         <v>1</v>
@@ -904,27 +835,27 @@
       <c r="D13" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="F13" s="8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -936,29 +867,32 @@
         <v>16</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="8">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>16</v>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="8">
         <v>2</v>
@@ -972,7 +906,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="8">
         <v>2</v>
@@ -986,7 +920,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="8">
         <v>2</v>
@@ -1000,24 +934,21 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="5">
-        <v>3</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>22</v>
+        <v>36</v>
+      </c>
+      <c r="B20" s="8">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
@@ -1031,13 +962,10 @@
       <c r="F21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B22" s="5">
         <v>3</v>
@@ -1051,21 +979,41 @@
       <c r="F22" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="G22" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B24" s="8">
         <v>3</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="C24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1076,13 +1024,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
